--- a/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
+++ b/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FA83F-F957-4FC5-8F92-CE99443BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA3FA83F-F957-4FC5-8F92-CE99443BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F5DECB-5D92-4A21-BC4C-623E5FB140B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Pin, Dowel - 5x30mm</t>
   </si>
   <si>
-    <t>M4X35_CapScrew_91290A182</t>
-  </si>
-  <si>
     <t>M4_Nut_94150A335</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>https://s.click.aliexpress.com/e/_DDqyw3X</t>
   </si>
   <si>
-    <t xml:space="preserve">Screw, Cap - M4X35mm * </t>
-  </si>
-  <si>
     <t>17a</t>
   </si>
   <si>
@@ -362,6 +356,12 @@
   </si>
   <si>
     <t>HevORT/files/STL/HD12/OPTION HD12CFx_TopRail at master · MirageC79/HevORT (github.com)</t>
+  </si>
+  <si>
+    <t>M4X40_CapScrew_91290A174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw, Cap - M4X40mm * </t>
   </si>
 </sst>
 </file>
@@ -694,9 +694,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +717,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,57 +740,6 @@
           <color theme="6" tint="-0.249977111117893"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1084,6 +1033,57 @@
         <bottom style="thin">
           <color theme="6" tint="-0.249977111117893"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2315,23 +2315,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A2:K27" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K27">
     <sortCondition ref="B3:B27"/>
     <sortCondition ref="E3:E27"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A66386C4-C1F2-46F4-B3BF-C96CFA20F059}" name="SubAssy" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E8CB70CF-BFCA-4B5A-8881-C383BA49617D}" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{29E181D5-B628-4916-8428-1E94FC914B56}" name="Item" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{E10C1A08-7847-409F-BEB0-A4F0C690C948}" name="Thumbnail" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2063F833-FC19-494C-AB3C-091DB1EB918F}" name="Part Name" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{8F190942-A290-4D02-93AF-E22E24328B55}" name="Part Description" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{5FE2C786-49C1-4789-8AFF-A49EF408914B}" name="Make/Buy" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{B7D54B57-2235-4849-A86F-6BE437DD3179}" name="QTY" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{590B3964-DEF5-455A-9CD6-9A9021CFCF04}" name="Comment" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{086A86B1-C668-484B-8271-59E34F35AE57}" name="Vendor" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A66386C4-C1F2-46F4-B3BF-C96CFA20F059}" name="SubAssy" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8CB70CF-BFCA-4B5A-8881-C383BA49617D}" name="Category" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{29E181D5-B628-4916-8428-1E94FC914B56}" name="Item" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E10C1A08-7847-409F-BEB0-A4F0C690C948}" name="Thumbnail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2063F833-FC19-494C-AB3C-091DB1EB918F}" name="Part Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8F190942-A290-4D02-93AF-E22E24328B55}" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5FE2C786-49C1-4789-8AFF-A49EF408914B}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B7D54B57-2235-4849-A86F-6BE437DD3179}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{590B3964-DEF5-455A-9CD6-9A9021CFCF04}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{086A86B1-C668-484B-8271-59E34F35AE57}" name="Vendor" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{5F6478B1-CCFF-4875-A723-D6E78D4B8A1E}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2661,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -2690,53 +2690,53 @@
         <f>HYPERLINK("https://a360.co/3YTyTso","LINK TO CAD")</f>
         <v>LINK TO CAD</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="F1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -2758,14 +2758,14 @@
         <v>4</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2775,10 +2775,10 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -2788,15 +2788,15 @@
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -2806,10 +2806,10 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -2819,15 +2819,15 @@
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -2837,10 +2837,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -2849,26 +2849,26 @@
         <v>1</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
@@ -2880,31 +2880,31 @@
         <v>1</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <v>6</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
@@ -2913,46 +2913,46 @@
         <v>1</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <v>8</v>
@@ -2968,30 +2968,30 @@
         <v>7</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>7</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -3018,7 +3018,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>7</v>
@@ -3027,27 +3027,27 @@
         <v>6</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>7</v>
@@ -3057,18 +3057,18 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>12</v>
@@ -3084,30 +3084,30 @@
         <v>7</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>7</v>
@@ -3121,20 +3121,20 @@
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
@@ -3143,27 +3143,27 @@
         <v>2</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
@@ -3177,20 +3177,20 @@
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
@@ -3199,93 +3199,93 @@
         <v>2</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4">
         <v>18</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>6</v>
@@ -3295,61 +3295,61 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15">
         <v>20</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>6</v>
@@ -3359,28 +3359,28 @@
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="15">
         <v>21</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>6</v>
@@ -3390,28 +3390,28 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="15">
         <v>22</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>6</v>
@@ -3421,28 +3421,28 @@
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="15">
         <v>23</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>6</v>
@@ -3452,28 +3452,28 @@
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="15">
         <v>24</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>6</v>
@@ -3483,10 +3483,10 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
+++ b/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2339,9 +2339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2379,9 +2379,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2414,26 +2414,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2466,26 +2449,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2661,27 +2627,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="21.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.08984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.54296875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="46.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="262" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="261.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2699,7 +2665,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2734,7 +2700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -2763,7 +2729,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>74</v>
       </c>
@@ -2794,7 +2760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>74</v>
       </c>
@@ -2825,7 +2791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2822,7 @@
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
@@ -2889,7 +2855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
@@ -2918,7 +2884,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -2947,7 +2913,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
@@ -2976,7 +2942,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -3003,7 +2969,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -3032,7 +2998,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
@@ -3063,7 +3029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>74</v>
       </c>
@@ -3092,7 +3058,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
@@ -3119,7 +3085,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3114,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -3175,7 +3141,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>74</v>
       </c>
@@ -3204,7 +3170,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>74</v>
       </c>
@@ -3237,7 +3203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>74</v>
       </c>
@@ -3270,7 +3236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>74</v>
       </c>
@@ -3301,7 +3267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>74</v>
       </c>
@@ -3334,7 +3300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>74</v>
       </c>
@@ -3365,7 +3331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>74</v>
       </c>
@@ -3396,7 +3362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>74</v>
       </c>
@@ -3427,7 +3393,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>74</v>
       </c>
@@ -3458,7 +3424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>74</v>
       </c>
@@ -3521,7 +3487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
+++ b/bom/Option_HD12_CFx_TopRail_MGN9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA3FA83F-F957-4FC5-8F92-CE99443BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F5DECB-5D92-4A21-BC4C-623E5FB140B1}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DA3FA83F-F957-4FC5-8F92-CE99443BC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EC75A93-D671-4DE5-9D15-2BCD8E5497B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t xml:space="preserve">Screw, Cap - M4X40mm * </t>
+  </si>
+  <si>
+    <t>OPTION_HD9_CFX TopRail_MGN9</t>
+  </si>
+  <si>
+    <t>18b</t>
+  </si>
+  <si>
+    <t>XYHDx_CFx_TopRail_MGN9_VZPrintHead_XFlag v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This end stop flag is to be matched with the side mounted X End Stop option form the Vez Metal print heat for HevORT </t>
   </si>
 </sst>
 </file>
@@ -1677,13 +1689,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>167341</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>122892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1319866</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1275417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1853,13 +1865,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>387350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1074249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2029,13 +2041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>273050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1401029</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1212850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2073,13 +2085,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1207215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2117,13 +2129,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1403350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1254955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2161,13 +2173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1373261</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1282700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2237,6 +2249,50 @@
         <a:xfrm>
           <a:off x="1" y="1"/>
           <a:ext cx="5027344" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91043</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1403350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1368955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6746729-DE6C-4A68-BCD2-423BBC3E1DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3596243" y="30937200"/>
+          <a:ext cx="1312307" cy="1261005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2315,11 +2371,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A2:K27" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K27">
-    <sortCondition ref="B3:B27"/>
-    <sortCondition ref="E3:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A2:K28" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K28">
+    <sortCondition ref="B3:B28"/>
+    <sortCondition ref="E3:E28"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A66386C4-C1F2-46F4-B3BF-C96CFA20F059}" name="SubAssy" dataDxfId="10"/>
@@ -2625,29 +2681,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="21.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="46.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.54296875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="261.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="262" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2665,7 +2721,7 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>26</v>
       </c>
@@ -2700,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>74</v>
       </c>
@@ -2729,7 +2785,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>74</v>
       </c>
@@ -2760,7 +2816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>74</v>
       </c>
@@ -2791,7 +2847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>74</v>
       </c>
@@ -2822,7 +2878,7 @@
       </c>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
@@ -2855,7 +2911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>74</v>
       </c>
@@ -2884,7 +2940,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>74</v>
       </c>
@@ -2913,7 +2969,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>74</v>
       </c>
@@ -2942,7 +2998,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>74</v>
       </c>
@@ -2969,7 +3025,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>74</v>
       </c>
@@ -2998,7 +3054,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>74</v>
       </c>
@@ -3029,7 +3085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>74</v>
       </c>
@@ -3058,7 +3114,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
@@ -3085,7 +3141,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>74</v>
       </c>
@@ -3114,7 +3170,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -3141,7 +3197,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>74</v>
       </c>
@@ -3170,7 +3226,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>74</v>
       </c>
@@ -3203,7 +3259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>74</v>
       </c>
@@ -3236,7 +3292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>74</v>
       </c>
@@ -3267,22 +3323,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4">
-        <v>19</v>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>6</v>
@@ -3291,7 +3347,7 @@
         <v>50</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>54</v>
@@ -3300,30 +3356,32 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="15">
-        <v>2</v>
-      </c>
-      <c r="I23" s="18"/>
+      <c r="H23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="J23" s="7" t="s">
         <v>54</v>
       </c>
@@ -3331,7 +3389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>74</v>
       </c>
@@ -3339,22 +3397,22 @@
         <v>33</v>
       </c>
       <c r="C24" s="15">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="18"/>
       <c r="J24" s="7" t="s">
         <v>54</v>
       </c>
@@ -3362,7 +3420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>74</v>
       </c>
@@ -3370,14 +3428,14 @@
         <v>33</v>
       </c>
       <c r="C25" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>6</v>
@@ -3393,7 +3451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>74</v>
       </c>
@@ -3401,14 +3459,14 @@
         <v>33</v>
       </c>
       <c r="C26" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>6</v>
@@ -3424,34 +3482,65 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="15">
-        <v>24</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K27" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="15">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="23" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3467,16 +3556,15 @@
     <hyperlink ref="K7" r:id="rId3" xr:uid="{557F6417-84B1-4DCF-A703-1ECE9F56E24D}"/>
     <hyperlink ref="K13" r:id="rId4" xr:uid="{4136F889-362E-4429-9323-BA00358D96A9}"/>
     <hyperlink ref="K19" r:id="rId5" display="https://github.com/MirageC79/HevORT/tree/master/files/STL/HD12/OPTION HD12CFx_TopRail" xr:uid="{C192C78C-00EC-40FB-A684-A01DC4FDCBC4}"/>
-    <hyperlink ref="K20:K27" r:id="rId6" display="https://github.com/MirageC79/HevORT/tree/master/files/STL/HD12/OPTION HD12CFx_TopRail" xr:uid="{72F7477A-677A-42F0-A9EF-5F46249CF191}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <webPublishItems count="1">
     <webPublishItem id="4722" divId="Option_HD9_CFx_MGN9_4722" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\Option_HD9_CFx_TopRail_MGN9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3487,7 +3575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
